--- a/form.xlsx
+++ b/form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Tổng event" sheetId="5" r:id="rId5"/>
     <sheet name="Tổng event (2)" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="525">
   <si>
     <t>name</t>
   </si>
@@ -1452,13 +1453,166 @@
   </si>
   <si>
     <t>event throw, area id, item type,object of the thrown object</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetAct</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventString</t>
+  </si>
+  <si>
+    <t>CurEventParam.Hurtlv</t>
+  </si>
+  <si>
+    <t>CurEventParam.SelectUIID</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventUIID</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetBuff</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventAreaid</t>
+  </si>
+  <si>
+    <t>Trigger.getLastCreateEffectId()</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetEffect</t>
+  </si>
+  <si>
+    <t>Trigger.Block:getLastCreateBlockid()</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetBlock</t>
+  </si>
+  <si>
+    <t>Trigger.Actor:GetProjectileShootPlayer(CurEventParam)</t>
+  </si>
+  <si>
+    <t>CurEventParam.TriggerByPlayer</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetPlayer</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventShortCutIdx</t>
+  </si>
+  <si>
+    <t>CurEventParam. EquipItemPos</t>
+  </si>
+  <si>
+    <t>Trigger.Actor:GetProjectileShootMob(CurEventParam)</t>
+  </si>
+  <si>
+    <t>Trigger.Creature:getLastCreateCreatureObjId()</t>
+  </si>
+  <si>
+    <t>CurEventParam.TriggerByCreature</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetCreature</t>
+  </si>
+  <si>
+    <t>CurEventParam.Itemnum</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventElementID</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetDropitem</t>
+  </si>
+  <si>
+    <t>CurEventParam.EventTargetPos</t>
+  </si>
+  <si>
+    <t>Mô tả sử dụng</t>
+  </si>
+  <si>
+    <t>Biểu cảm động trong sự kiện</t>
+  </si>
+  <si>
+    <t>Chuỗi trong sự kiện</t>
+  </si>
+  <si>
+    <t>Giá trị sát thương trong sự kiện</t>
+  </si>
+  <si>
+    <t>Giao diện chỉnh sửa hiện tại</t>
+  </si>
+  <si>
+    <t>Giao diện trong sự kiện</t>
+  </si>
+  <si>
+    <t>Hiệu ứng trạng thái trong sự kiện</t>
+  </si>
+  <si>
+    <t>Khu vực trong sự kiện</t>
+  </si>
+  <si>
+    <t>Loại hiệu ứng được tạo cuối cùng</t>
+  </si>
+  <si>
+    <t>Loại hiệu ứng trong sự kiện</t>
+  </si>
+  <si>
+    <t>Loại khối được tạo cuối cùng</t>
+  </si>
+  <si>
+    <t>Loại khối trong sự kiện</t>
+  </si>
+  <si>
+    <t>Người chơi bắn vật ném</t>
+  </si>
+  <si>
+    <t>Người chơi kích hoạt trong sự kiện</t>
+  </si>
+  <si>
+    <t>Người chơi mục tiêu trong sự kiện</t>
+  </si>
+  <si>
+    <t>qui Sinh vật được tạo cuối cùng</t>
+  </si>
+  <si>
+    <t>Ô phím tắt trong sự kiện</t>
+  </si>
+  <si>
+    <t>Ô trang bị trong sự kiện</t>
+  </si>
+  <si>
+    <t>Sinh vật bắn vật ném</t>
+  </si>
+  <si>
+    <t>Sinh vật kích hoạt trong sự kiện</t>
+  </si>
+  <si>
+    <t>Sinh vật mục tiêu trong sự kiện</t>
+  </si>
+  <si>
+    <t>Số lượng vật phẩm trong sự kiện</t>
+  </si>
+  <si>
+    <t>Thành phần trong sự kiện</t>
+  </si>
+  <si>
+    <t>Vật ném kích hoạt sự kiện</t>
+  </si>
+  <si>
+    <t>Vật rơi sự kiện</t>
+  </si>
+  <si>
+    <t>CurEventParam.TriggerBy Missile</t>
+  </si>
+  <si>
+    <t>Vị trí trong sự kiện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1690,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2346,7 +2506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2712,6 +2872,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32465,8 +32626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D332"/>
+    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36986,4 +37147,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="133" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>482</v>
+      </c>
+      <c r="G10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>485</v>
+      </c>
+      <c r="G13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>486</v>
+      </c>
+      <c r="G14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>488</v>
+      </c>
+      <c r="G16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="G17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>490</v>
+      </c>
+      <c r="G18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>491</v>
+      </c>
+      <c r="G19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="G20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>493</v>
+      </c>
+      <c r="G21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>494</v>
+      </c>
+      <c r="G22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>523</v>
+      </c>
+      <c r="G24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>496</v>
+      </c>
+      <c r="G25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>497</v>
+      </c>
+      <c r="G26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>